--- a/bill.xlsx
+++ b/bill.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>количество</t>
   </si>
@@ -31,14 +31,881 @@
     <t>корпус</t>
   </si>
   <si>
-    <t>магазин</t>
+    <t>LQFP48</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>ХЗ</t>
+  </si>
+  <si>
+    <t>LQFP100</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разъём </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M20-6103245</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Контроллер Ethernet физического уровня </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DP83640</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Контроллер Ethernet физического уровня 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DM9161AEP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разъём </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLD-44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резонатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KX-3HT 25.0 MHz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Генератор  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FOX924B-25.000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.8k 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Резистор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4.87k 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150 5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10k 5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2k  5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Микроконтроллер </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STM32F303VC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Керамический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10u 10% 16В</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тактовая кнопка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TD-02XA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Феррит для подавления EMI   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BLM18HG601SN1</t>
+    </r>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Линейный регулятор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LM4041CIDBZR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>240 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43 1%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Программируемый усилитель </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PGA2505IDB</t>
+    </r>
+  </si>
+  <si>
+    <t>SSOP-24</t>
+  </si>
+  <si>
+    <t>TSSOP-20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Преобразователь уровня напряжения </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TXB0108PW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51 k  5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>62 k  5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резистор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200 k  5%</t>
+    </r>
+  </si>
+  <si>
+    <t>MSOP-8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDO регулятор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TPS7A4901DGN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDO регулятор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TPS7A3001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ethernet разъём с трансформатором </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85789-1001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Диодный мост </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DF01M-E3/45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Преобразователь питания PoE+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ag5100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DC/DC преобразователь</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SKE10B-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Электролитический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>470u 16В</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDO 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADP3335ARMZ-3.3RL7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разъём </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDC-24MR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разъём SMA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>523-132134</t>
+    </r>
+  </si>
+  <si>
+    <t>http://ru.mouser.com/ProductDetail/Harwin/M20-6103245/?qs=%2fha2pyFaduhidTM%2fgcCAqzjiPFq9EGz8jVM6XpQTCMPykeqamS2E8Q%3d%3d</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=dp83640&amp;Gde=2&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=dm9161aep&amp;Gde=2&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=419&amp;Search=1&amp;Text=kx%203ht%2025.0%20mhz&amp;Gde=2&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>где приобрести</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/9000079732/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/9000079609/</t>
+  </si>
+  <si>
+    <t>http://www.kontest.ru/catalog/item/3707560</t>
+  </si>
+  <si>
+    <r>
+      <t>Керамический конденсатор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.1u  50В 20%</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/226236018/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Керамический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.7u 10% 10В</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm188f51a475ze20d/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm21br61c106ke15l/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm1885c1h220ga01d/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Керамический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22p  50В 5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Керамический конденсатор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1u 10% X7R 16В</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm188r71c105ka12d/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm188r71h103k/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Керамический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.01u 10% X7R 50В</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Керамический конденсатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2u 10% 16В</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm188r61c225ke15d/</t>
+  </si>
+  <si>
+    <r>
+      <t>Керамический конденсатор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1n 5%  50В</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/grm1885c1h222ja01d/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/b41121a4477m000/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/58216/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/65097/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/19268/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/9000079625/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/9000079618/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/9000079607/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/469851073/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/31346/</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product0/15179/</t>
+  </si>
+  <si>
+    <t>http://ru.mouser.com/ProductDetail/Amphenol-Connex/132134/?qs=sGAEpiMZZMuLQf%252bEuFsOriBbEyVWseQ%252bTu4tIdRYeoI%3d</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=769&amp;Search=1&amp;Text=stm32f303vc&amp;Gde=2&amp;PageS=1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Резонатор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KX-3H 8.0 MHz</t>
+    </r>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=419&amp;Page=9&amp;Sort=&amp;InHave=&amp;InNew=&amp;Search=0&amp;Text=&amp;Gde=&amp;PageS=</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/dtsm-32n/</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=blm18hg601sn1&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=257&amp;Search=1&amp;Text=lm4041cidbzr&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product1/8150565693/</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=txb0108pw&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=tps7a4901dgn&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=1115&amp;Search=1&amp;Text=tps7a3001&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://ru.mouser.com/ProductDetail/Molex/85789-1001/?qs=%2fha2pyFadugKHJHzZp44I2z2e0u5kwG2fcLKh4dzW8c63d8ZHf6l8w%3d%3d</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=706&amp;Search=1&amp;Text=ske10b%2005&amp;Gde=0&amp;PageS=1</t>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/idc-24mr/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Разъём </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDC-20MR</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.chipdip.ru/product/idc-20mr/</t>
+  </si>
+  <si>
+    <t>http://93.189.60.36/catalog.php?ID=280&amp;Search=1&amp;Text=adp3335armz%203.3rl7&amp;Gde=0&amp;PageS=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +914,35 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.65"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,16 +954,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,19 +1276,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -392,16 +1301,625 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E17" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E21" r:id="rId12"/>
+    <hyperlink ref="E22" r:id="rId13"/>
+    <hyperlink ref="E42" r:id="rId14"/>
+    <hyperlink ref="E45" r:id="rId15"/>
+    <hyperlink ref="E41" r:id="rId16"/>
+    <hyperlink ref="E12" r:id="rId17"/>
+    <hyperlink ref="E13" r:id="rId18"/>
+    <hyperlink ref="E16" r:id="rId19"/>
+    <hyperlink ref="E27" r:id="rId20"/>
+    <hyperlink ref="E28" r:id="rId21"/>
+    <hyperlink ref="E29" r:id="rId22"/>
+    <hyperlink ref="E32" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
+    <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="E18" r:id="rId27"/>
+    <hyperlink ref="E19" r:id="rId28"/>
+    <hyperlink ref="E23" r:id="rId29"/>
+    <hyperlink ref="E24" r:id="rId30"/>
+    <hyperlink ref="E26" r:id="rId31"/>
+    <hyperlink ref="E30" r:id="rId32"/>
+    <hyperlink ref="E31" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E40" r:id="rId37"/>
+    <hyperlink ref="E43" r:id="rId38"/>
+    <hyperlink ref="E25" r:id="rId39"/>
+    <hyperlink ref="E44" r:id="rId40"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/bill.xlsx
+++ b/bill.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>количество</t>
   </si>
@@ -32,6 +32,37 @@
   </si>
   <si>
     <t>магазин</t>
+  </si>
+  <si>
+    <t>Разъём M20-6103245</t>
+  </si>
+  <si>
+    <t>Контроллер Ethernet физического уровня DP83640</t>
+  </si>
+  <si>
+    <t>LQFP48</t>
+  </si>
+  <si>
+    <t>Контроллер Ethernet физического уровня 
+DM9161AEP</t>
+  </si>
+  <si>
+    <t>Разъём PLD-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резонатор KX-3HT 25.0 MHz </t>
+  </si>
+  <si>
+    <t>Генератор  FOX924B-25.000</t>
+  </si>
+  <si>
+    <t>Резистор 6.8k 1%</t>
+  </si>
+  <si>
+    <t>Резистор 51 1%</t>
+  </si>
+  <si>
+    <t>Резистор 4.8k 1%</t>
   </si>
 </sst>
 </file>
@@ -68,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
@@ -397,6 +431,84 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
